--- a/data/pca/factorExposure/factorExposure_2019-06-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-06-28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.1169670982211299</v>
+        <v>-0.07908050386985839</v>
       </c>
       <c r="C2">
-        <v>0.01292123603139515</v>
+        <v>-0.01466258964924501</v>
       </c>
       <c r="D2">
-        <v>0.08840237240085873</v>
+        <v>0.032643062109869</v>
       </c>
       <c r="E2">
-        <v>-0.07686525959750548</v>
+        <v>-0.1383681964142224</v>
       </c>
       <c r="F2">
-        <v>-0.05628801266025599</v>
+        <v>0.006756997348443171</v>
       </c>
       <c r="G2">
-        <v>0.04106807746598446</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.07640930782044807</v>
+      </c>
+      <c r="H2">
+        <v>0.07638259615926907</v>
+      </c>
+      <c r="I2">
+        <v>-0.08155826995896188</v>
+      </c>
+      <c r="J2">
+        <v>-0.0394183130039059</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>-0.2000918278660079</v>
+        <v>-0.1579159550567755</v>
       </c>
       <c r="C3">
-        <v>-0.09330355164944162</v>
+        <v>-0.09952278255608513</v>
       </c>
       <c r="D3">
-        <v>0.1180355024581348</v>
+        <v>-0.04995397404985007</v>
       </c>
       <c r="E3">
-        <v>-0.3003772436028502</v>
+        <v>-0.3614039930080489</v>
       </c>
       <c r="F3">
-        <v>0.02843515506933411</v>
+        <v>0.1110754676363137</v>
       </c>
       <c r="G3">
-        <v>0.2768378743846069</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.02285720975550282</v>
+      </c>
+      <c r="H3">
+        <v>0.2876333935204404</v>
+      </c>
+      <c r="I3">
+        <v>-0.1766383688823449</v>
+      </c>
+      <c r="J3">
+        <v>0.06913294249352982</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.09280135640817663</v>
+        <v>-0.07291823736023553</v>
       </c>
       <c r="C4">
-        <v>-0.01855673953459505</v>
+        <v>-0.03074673800716163</v>
       </c>
       <c r="D4">
-        <v>0.05178385281376109</v>
+        <v>0.02170916905660727</v>
       </c>
       <c r="E4">
-        <v>-0.07707193678894984</v>
+        <v>-0.09097127942678448</v>
       </c>
       <c r="F4">
-        <v>-0.03488551736498401</v>
+        <v>0.05247997575000424</v>
       </c>
       <c r="G4">
-        <v>0.02230746004501036</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.03425544697997377</v>
+      </c>
+      <c r="H4">
+        <v>0.03999718300393464</v>
+      </c>
+      <c r="I4">
+        <v>-0.01732545359759021</v>
+      </c>
+      <c r="J4">
+        <v>0.04005070223904592</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-0.00767554905303063</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0.00702677964741186</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.001390017937410066</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.00536601453591256</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>-0.001875301711868377</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.01342700557143898</v>
+      </c>
+      <c r="H6">
+        <v>0.005546832925973623</v>
+      </c>
+      <c r="I6">
+        <v>0.00279190402605134</v>
+      </c>
+      <c r="J6">
+        <v>0.002040842841067998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.04085139842064373</v>
+        <v>-0.03385628311516604</v>
       </c>
       <c r="C7">
-        <v>-0.003602204354057354</v>
+        <v>-0.01534666580161908</v>
       </c>
       <c r="D7">
-        <v>0.05987411652383147</v>
+        <v>0.01601695284069435</v>
       </c>
       <c r="E7">
-        <v>-0.04814048350013848</v>
+        <v>-0.06317223739197962</v>
       </c>
       <c r="F7">
-        <v>0.05731803114508962</v>
+        <v>0.02685296707062696</v>
       </c>
       <c r="G7">
-        <v>0.02019220098410966</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.01816470593677113</v>
+      </c>
+      <c r="H7">
+        <v>0.04693967196694227</v>
+      </c>
+      <c r="I7">
+        <v>0.005387246275474255</v>
+      </c>
+      <c r="J7">
+        <v>0.02696990339736158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.0371215517185239</v>
+        <v>-0.02968907143519173</v>
       </c>
       <c r="C8">
-        <v>-0.03545433681419904</v>
+        <v>-0.03681512538853311</v>
       </c>
       <c r="D8">
-        <v>0.03341720142389075</v>
+        <v>0.006127805743740598</v>
       </c>
       <c r="E8">
-        <v>-0.06934266198677343</v>
+        <v>-0.08228847858034749</v>
       </c>
       <c r="F8">
-        <v>0.00464175567538327</v>
+        <v>0.04395340446024117</v>
       </c>
       <c r="G8">
-        <v>0.03651533153337759</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.004639050671376096</v>
+      </c>
+      <c r="H8">
+        <v>0.05596675726187073</v>
+      </c>
+      <c r="I8">
+        <v>-0.0391146566352041</v>
+      </c>
+      <c r="J8">
+        <v>0.01752907658091307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.08227291094853303</v>
+        <v>-0.06215806027357768</v>
       </c>
       <c r="C9">
-        <v>-0.01984297318444883</v>
+        <v>-0.03031111469275748</v>
       </c>
       <c r="D9">
-        <v>0.06077877468408543</v>
+        <v>0.02364446177885696</v>
       </c>
       <c r="E9">
-        <v>-0.0649395086360811</v>
+        <v>-0.08595500023980493</v>
       </c>
       <c r="F9">
-        <v>-0.01919343231412683</v>
+        <v>0.05714660571869727</v>
       </c>
       <c r="G9">
-        <v>0.02071374480461607</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.0226175409269926</v>
+      </c>
+      <c r="H9">
+        <v>0.0347442896359046</v>
+      </c>
+      <c r="I9">
+        <v>-0.009873022384576834</v>
+      </c>
+      <c r="J9">
+        <v>0.006781490081369556</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>0.02157212283556017</v>
+        <v>-0.003909391195055856</v>
       </c>
       <c r="C10">
-        <v>0.1620203109640738</v>
+        <v>0.1567985293607703</v>
       </c>
       <c r="D10">
-        <v>0.01602125849114971</v>
+        <v>-0.01887405001767632</v>
       </c>
       <c r="E10">
-        <v>-0.04850296661721943</v>
+        <v>-0.05244338730842752</v>
       </c>
       <c r="F10">
-        <v>0.005567422819978606</v>
+        <v>0.005367454347419415</v>
       </c>
       <c r="G10">
-        <v>-0.02149300697352059</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.01152084484032145</v>
+      </c>
+      <c r="H10">
+        <v>-0.02221600287144463</v>
+      </c>
+      <c r="I10">
+        <v>-0.1092122680113384</v>
+      </c>
+      <c r="J10">
+        <v>0.06101815498011987</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.05939668281677008</v>
+        <v>-0.05135903325353645</v>
       </c>
       <c r="C11">
-        <v>0.001175812370910135</v>
+        <v>-0.01577008774013002</v>
       </c>
       <c r="D11">
-        <v>0.01455645965424041</v>
+        <v>0.004219949648001975</v>
       </c>
       <c r="E11">
-        <v>-0.04487082034515851</v>
+        <v>-0.04927275731798066</v>
       </c>
       <c r="F11">
-        <v>0.004081782712166929</v>
+        <v>0.002673707397242449</v>
       </c>
       <c r="G11">
-        <v>-0.01471268898271445</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.000828710548354271</v>
+      </c>
+      <c r="H11">
+        <v>0.01998635174409701</v>
+      </c>
+      <c r="I11">
+        <v>0.01020067371797564</v>
+      </c>
+      <c r="J11">
+        <v>-0.004361965988219798</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.049568602303598</v>
+        <v>-0.04932359252065237</v>
       </c>
       <c r="C12">
-        <v>-0.001739276784176414</v>
+        <v>-0.01549908121648346</v>
       </c>
       <c r="D12">
-        <v>0.0119732088064094</v>
+        <v>0.00780627179090258</v>
       </c>
       <c r="E12">
-        <v>-0.02244240581480645</v>
+        <v>-0.02638789208200693</v>
       </c>
       <c r="F12">
-        <v>0.009327195497486737</v>
+        <v>0.01871522241524544</v>
       </c>
       <c r="G12">
-        <v>0.002512382232112774</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.00319690271271387</v>
+      </c>
+      <c r="H12">
+        <v>0.009360473070418446</v>
+      </c>
+      <c r="I12">
+        <v>0.01927967719942046</v>
+      </c>
+      <c r="J12">
+        <v>-0.005295927237495492</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.0554712506751292</v>
+        <v>-0.03846217866429454</v>
       </c>
       <c r="C13">
-        <v>-0.01830537983481078</v>
+        <v>-0.02294251102298762</v>
       </c>
       <c r="D13">
-        <v>0.04402237596392256</v>
+        <v>0.002445324477479373</v>
       </c>
       <c r="E13">
-        <v>-0.1057377788851362</v>
+        <v>-0.1066386459483101</v>
       </c>
       <c r="F13">
-        <v>0.0003631343865737869</v>
+        <v>0.005312896310175425</v>
       </c>
       <c r="G13">
-        <v>0.003177064823159999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.001135628215917685</v>
+      </c>
+      <c r="H13">
+        <v>0.05335110396117968</v>
+      </c>
+      <c r="I13">
+        <v>-0.03664622307404735</v>
+      </c>
+      <c r="J13">
+        <v>-0.01839106362307676</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.03758569049208418</v>
+        <v>-0.02832426187116382</v>
       </c>
       <c r="C14">
-        <v>-0.007232997684757525</v>
+        <v>-0.01614006869777196</v>
       </c>
       <c r="D14">
-        <v>0.02699203795999979</v>
+        <v>0.01977754544648459</v>
       </c>
       <c r="E14">
-        <v>-0.01570355250365677</v>
+        <v>-0.03918661110749959</v>
       </c>
       <c r="F14">
-        <v>0.006587096808436756</v>
+        <v>0.01885788781067838</v>
       </c>
       <c r="G14">
-        <v>0.0233968533855071</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.01252355818299665</v>
+      </c>
+      <c r="H14">
+        <v>0.06138740058644176</v>
+      </c>
+      <c r="I14">
+        <v>-0.0231968939583316</v>
+      </c>
+      <c r="J14">
+        <v>0.01053509063754994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>-0.05195986610685749</v>
+        <v>-0.04315370807479644</v>
       </c>
       <c r="C16">
-        <v>-0.01604285182133121</v>
+        <v>-0.02476126340641386</v>
       </c>
       <c r="D16">
-        <v>0.001667112122612967</v>
+        <v>-0.002308826755447953</v>
       </c>
       <c r="E16">
-        <v>-0.04995460638858139</v>
+        <v>-0.04646316879873943</v>
       </c>
       <c r="F16">
-        <v>0.005092512415276585</v>
+        <v>0.006449549007446677</v>
       </c>
       <c r="G16">
-        <v>-0.00270587956946644</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.00526142797333368</v>
+      </c>
+      <c r="H16">
+        <v>0.02080457027498596</v>
+      </c>
+      <c r="I16">
+        <v>0.01268108280436546</v>
+      </c>
+      <c r="J16">
+        <v>0.0001523505207247998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>-0.04263748622115234</v>
+        <v>-0.04477788661367325</v>
       </c>
       <c r="C19">
-        <v>-0.03061160471230021</v>
+        <v>-0.03483718893920594</v>
       </c>
       <c r="D19">
-        <v>0.03741780412233398</v>
+        <v>0.004956299263423156</v>
       </c>
       <c r="E19">
-        <v>-0.07828263059411233</v>
+        <v>-0.09706610254888523</v>
       </c>
       <c r="F19">
-        <v>0.01000070131446314</v>
+        <v>0.02760702054967589</v>
       </c>
       <c r="G19">
-        <v>0.01206165466603506</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.008512853666482575</v>
+      </c>
+      <c r="H19">
+        <v>0.07383592202355145</v>
+      </c>
+      <c r="I19">
+        <v>-0.07174207819621563</v>
+      </c>
+      <c r="J19">
+        <v>-0.005887535846131883</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>-0.03141208852475224</v>
+        <v>-0.01674772621328672</v>
       </c>
       <c r="C20">
-        <v>-0.03475568966051603</v>
+        <v>-0.03415463963291467</v>
       </c>
       <c r="D20">
-        <v>0.03628817183571235</v>
+        <v>0.01053908580288839</v>
       </c>
       <c r="E20">
-        <v>-0.06825517758486251</v>
+        <v>-0.07729467598210958</v>
       </c>
       <c r="F20">
-        <v>0.02025808742174622</v>
+        <v>0.03236912864078509</v>
       </c>
       <c r="G20">
-        <v>0.03024145189364942</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.01280734328608885</v>
+      </c>
+      <c r="H20">
+        <v>0.07680769950956863</v>
+      </c>
+      <c r="I20">
+        <v>-0.02334902849639332</v>
+      </c>
+      <c r="J20">
+        <v>0.02325817376567627</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>-0.03360836219521293</v>
+        <v>-0.01508350190816537</v>
       </c>
       <c r="C21">
-        <v>-0.01844684132540083</v>
+        <v>-0.0272406292880045</v>
       </c>
       <c r="D21">
-        <v>0.03333526314120103</v>
+        <v>-0.01251172891253986</v>
       </c>
       <c r="E21">
-        <v>-0.0900448787811918</v>
+        <v>-0.08496968764852804</v>
       </c>
       <c r="F21">
-        <v>-0.02129679702426041</v>
+        <v>0.02270553129551591</v>
       </c>
       <c r="G21">
-        <v>0.006853965918855711</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.01220374905364731</v>
+      </c>
+      <c r="H21">
+        <v>0.04091790777782948</v>
+      </c>
+      <c r="I21">
+        <v>-0.0144905921035978</v>
+      </c>
+      <c r="J21">
+        <v>-0.02647875295491452</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>-0.04616160815289715</v>
+        <v>-0.04088948453374087</v>
       </c>
       <c r="C24">
-        <v>-0.01026638253366827</v>
+        <v>-0.01533237445559407</v>
       </c>
       <c r="D24">
-        <v>0.02108155882191762</v>
+        <v>0.004301736408274296</v>
       </c>
       <c r="E24">
-        <v>-0.05194344371664995</v>
+        <v>-0.04977916978079409</v>
       </c>
       <c r="F24">
-        <v>0.008891019025782525</v>
+        <v>0.006256092444056383</v>
       </c>
       <c r="G24">
-        <v>-0.01030896055476213</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.01222603560660728</v>
+      </c>
+      <c r="H24">
+        <v>0.01529244224247977</v>
+      </c>
+      <c r="I24">
+        <v>0.009886844766936853</v>
+      </c>
+      <c r="J24">
+        <v>0.001537520062557297</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>-0.05006398514407625</v>
+        <v>-0.04408061654902007</v>
       </c>
       <c r="C25">
-        <v>0.001473160723789323</v>
+        <v>-0.01613618684395277</v>
       </c>
       <c r="D25">
-        <v>0.01373669720658296</v>
+        <v>0.003746585442402175</v>
       </c>
       <c r="E25">
-        <v>-0.04009810282838933</v>
+        <v>-0.04692318956497001</v>
       </c>
       <c r="F25">
-        <v>0.006456708116252635</v>
+        <v>0.008411294618874016</v>
       </c>
       <c r="G25">
-        <v>-0.01732876137552664</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.006024014098936836</v>
+      </c>
+      <c r="H25">
+        <v>0.00802203517498329</v>
+      </c>
+      <c r="I25">
+        <v>0.012654142709163</v>
+      </c>
+      <c r="J25">
+        <v>-0.01007739454121087</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>0.002471029014560424</v>
+        <v>-0.00687237777111721</v>
       </c>
       <c r="C26">
-        <v>-0.01921910025833612</v>
+        <v>-0.02026314276931983</v>
       </c>
       <c r="D26">
-        <v>0.02943250322299816</v>
+        <v>-0.005014185776197007</v>
       </c>
       <c r="E26">
-        <v>-0.04777992809996762</v>
+        <v>-0.05861391229146331</v>
       </c>
       <c r="F26">
-        <v>-0.006600950738375588</v>
+        <v>-0.002858872004150571</v>
       </c>
       <c r="G26">
-        <v>0.009433298806921805</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.003214701687118132</v>
+      </c>
+      <c r="H26">
+        <v>0.03522458879872952</v>
+      </c>
+      <c r="I26">
+        <v>0.003079950141458997</v>
+      </c>
+      <c r="J26">
+        <v>0.009782954578306288</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>-0.1082566247238799</v>
+        <v>-0.08943085980384335</v>
       </c>
       <c r="C27">
-        <v>-0.004132825065373073</v>
+        <v>-0.01595640885253463</v>
       </c>
       <c r="D27">
-        <v>0.06907516511349741</v>
+        <v>0.02740990204653485</v>
       </c>
       <c r="E27">
-        <v>-0.09659083296724248</v>
+        <v>-0.09168231581573941</v>
       </c>
       <c r="F27">
-        <v>0.009756174532135524</v>
+        <v>0.04170653025096639</v>
       </c>
       <c r="G27">
-        <v>-0.01970122786156982</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.002863904713445723</v>
+      </c>
+      <c r="H27">
+        <v>0.009182986556563449</v>
+      </c>
+      <c r="I27">
+        <v>-0.001240473729438965</v>
+      </c>
+      <c r="J27">
+        <v>0.01692485813286478</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>0.02610510021537242</v>
+        <v>-0.01036110176893168</v>
       </c>
       <c r="C28">
-        <v>0.2322966414441445</v>
+        <v>0.2239231501951146</v>
       </c>
       <c r="D28">
-        <v>-0.002964503897648049</v>
+        <v>-0.02685273483268039</v>
       </c>
       <c r="E28">
-        <v>-0.03926313879641903</v>
+        <v>-0.04045995998747971</v>
       </c>
       <c r="F28">
-        <v>-0.0003543610922353574</v>
+        <v>0.001962520976118589</v>
       </c>
       <c r="G28">
-        <v>-0.04300787143320147</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.01502578517592875</v>
+      </c>
+      <c r="H28">
+        <v>-0.04498190002556169</v>
+      </c>
+      <c r="I28">
+        <v>-0.1446406504481034</v>
+      </c>
+      <c r="J28">
+        <v>0.08995417028815939</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>-0.01799017716147458</v>
+        <v>-0.01906920078864902</v>
       </c>
       <c r="C29">
-        <v>-0.01946339209234987</v>
+        <v>-0.02281406893350919</v>
       </c>
       <c r="D29">
-        <v>0.03090967174902059</v>
+        <v>0.0155926638653314</v>
       </c>
       <c r="E29">
-        <v>-0.0306762419667683</v>
+        <v>-0.03912915170186258</v>
       </c>
       <c r="F29">
-        <v>-0.002684232371070367</v>
+        <v>0.02892622251882783</v>
       </c>
       <c r="G29">
-        <v>0.02997666040890325</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.01659973749425417</v>
+      </c>
+      <c r="H29">
+        <v>0.05921876088962799</v>
+      </c>
+      <c r="I29">
+        <v>-0.01041184901247816</v>
+      </c>
+      <c r="J29">
+        <v>0.01468393702097794</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>-0.1037113476873646</v>
+        <v>-0.1026825197165198</v>
       </c>
       <c r="C30">
-        <v>0.001937103643795731</v>
+        <v>-0.02649988407178374</v>
       </c>
       <c r="D30">
-        <v>0.06458501142627786</v>
+        <v>0.0287561570964478</v>
       </c>
       <c r="E30">
-        <v>-0.1083915068202067</v>
+        <v>-0.1138559416117061</v>
       </c>
       <c r="F30">
-        <v>0.01436054742693541</v>
+        <v>0.009344154609476771</v>
       </c>
       <c r="G30">
-        <v>-0.0825640222382325</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.02520146250554188</v>
+      </c>
+      <c r="H30">
+        <v>0.009494174574960464</v>
+      </c>
+      <c r="I30">
+        <v>0.03002056431331096</v>
+      </c>
+      <c r="J30">
+        <v>-0.0247094646857363</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>-0.05235661701441306</v>
+        <v>-0.05725414961337389</v>
       </c>
       <c r="C31">
-        <v>-0.01118449520628629</v>
+        <v>-0.01641922399216824</v>
       </c>
       <c r="D31">
-        <v>0.01763524225368036</v>
+        <v>0.01490135003991296</v>
       </c>
       <c r="E31">
-        <v>0.00752557961198986</v>
+        <v>-0.01975778547371494</v>
       </c>
       <c r="F31">
-        <v>-0.008466724524062271</v>
+        <v>-0.01723657963513814</v>
       </c>
       <c r="G31">
-        <v>0.01713852879205768</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.0334427536945083</v>
+      </c>
+      <c r="H31">
+        <v>0.04843365558204132</v>
+      </c>
+      <c r="I31">
+        <v>-0.0156525102123806</v>
+      </c>
+      <c r="J31">
+        <v>0.0179484869071093</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>-0.06392239057094125</v>
+        <v>-0.04650371387500963</v>
       </c>
       <c r="C32">
-        <v>-0.02177270074522724</v>
+        <v>-0.04360169968689281</v>
       </c>
       <c r="D32">
-        <v>0.05797798243279405</v>
+        <v>0.01843850757781952</v>
       </c>
       <c r="E32">
-        <v>-0.1034440125891149</v>
+        <v>-0.09834152826181773</v>
       </c>
       <c r="F32">
-        <v>0.0375994893502922</v>
+        <v>0.03461044239735199</v>
       </c>
       <c r="G32">
-        <v>-0.01009323044118896</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.02016661041735724</v>
+      </c>
+      <c r="H32">
+        <v>0.05200598983653274</v>
+      </c>
+      <c r="I32">
+        <v>-0.03507423390454624</v>
+      </c>
+      <c r="J32">
+        <v>-0.02490696481737605</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>-0.06440439733843512</v>
+        <v>-0.05828656021797616</v>
       </c>
       <c r="C33">
-        <v>-0.02522035982488565</v>
+        <v>-0.04105891215733164</v>
       </c>
       <c r="D33">
-        <v>0.04586401822865841</v>
+        <v>0.003021910805879897</v>
       </c>
       <c r="E33">
-        <v>-0.06366448139944726</v>
+        <v>-0.09022068665027225</v>
       </c>
       <c r="F33">
-        <v>-0.01577766425727156</v>
+        <v>0.008943937495334968</v>
       </c>
       <c r="G33">
-        <v>0.0005173482157824071</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.01208111164850701</v>
+      </c>
+      <c r="H33">
+        <v>0.05044452739092086</v>
+      </c>
+      <c r="I33">
+        <v>0.008985848118228208</v>
+      </c>
+      <c r="J33">
+        <v>-0.00348229529192853</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>-0.04525333175468235</v>
+        <v>-0.04264753733888522</v>
       </c>
       <c r="C34">
-        <v>-0.01168801494065272</v>
+        <v>-0.02086009360796025</v>
       </c>
       <c r="D34">
-        <v>0.005428863185495883</v>
+        <v>0.007717844072693787</v>
       </c>
       <c r="E34">
-        <v>-0.02795700783338471</v>
+        <v>-0.03987366960235895</v>
       </c>
       <c r="F34">
-        <v>0.007192906208329954</v>
+        <v>0.008852881402741769</v>
       </c>
       <c r="G34">
-        <v>0.00560726928069221</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.002704242060853651</v>
+      </c>
+      <c r="H34">
+        <v>0.02460724016777452</v>
+      </c>
+      <c r="I34">
+        <v>0.004677896451448521</v>
+      </c>
+      <c r="J34">
+        <v>-0.01378958121879383</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>-0.008268602287914508</v>
+        <v>-0.01195220005028012</v>
       </c>
       <c r="C36">
-        <v>0.006410211573643532</v>
+        <v>-0.001650581120732487</v>
       </c>
       <c r="D36">
-        <v>0.01552972370255852</v>
+        <v>0.004412586516561029</v>
       </c>
       <c r="E36">
-        <v>-0.02548778403241102</v>
+        <v>-0.03143831197899617</v>
       </c>
       <c r="F36">
-        <v>-0.00213961631131864</v>
+        <v>0.01029280377104345</v>
       </c>
       <c r="G36">
-        <v>-0.006369021282722597</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.009891838515101446</v>
+      </c>
+      <c r="H36">
+        <v>0.03490803368487568</v>
+      </c>
+      <c r="I36">
+        <v>-0.01469204126405778</v>
+      </c>
+      <c r="J36">
+        <v>-0.006429357574304792</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>-0.05030219338806525</v>
+        <v>-0.02913911878513473</v>
       </c>
       <c r="C38">
-        <v>-0.005514412293235579</v>
+        <v>-0.01066379917628464</v>
       </c>
       <c r="D38">
-        <v>0.03428009396312046</v>
+        <v>0.006529113108846402</v>
       </c>
       <c r="E38">
-        <v>-0.02024138113597692</v>
+        <v>-0.04717556845872913</v>
       </c>
       <c r="F38">
-        <v>-0.001678943449847814</v>
+        <v>0.01840746270731765</v>
       </c>
       <c r="G38">
-        <v>0.01035992965575957</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.01595810502609201</v>
+      </c>
+      <c r="H38">
+        <v>0.009674090304385255</v>
+      </c>
+      <c r="I38">
+        <v>-0.008713579563499729</v>
+      </c>
+      <c r="J38">
+        <v>-0.01450068327366948</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>-0.07560930394334692</v>
+        <v>-0.06330671334833041</v>
       </c>
       <c r="C39">
-        <v>-0.008256678866413467</v>
+        <v>-0.02793785646829224</v>
       </c>
       <c r="D39">
-        <v>0.02367381372882889</v>
+        <v>0.01855695484914975</v>
       </c>
       <c r="E39">
-        <v>-0.04162325488141479</v>
+        <v>-0.06049208050795487</v>
       </c>
       <c r="F39">
-        <v>-0.006824739374147407</v>
+        <v>-0.0009194415150277871</v>
       </c>
       <c r="G39">
-        <v>-0.01921173108035049</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.004109206298113592</v>
+      </c>
+      <c r="H39">
+        <v>0.02047218392903695</v>
+      </c>
+      <c r="I39">
+        <v>0.0206311070875368</v>
+      </c>
+      <c r="J39">
+        <v>-0.02167110497000983</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>-0.0678386223939841</v>
+        <v>-0.0551855193282989</v>
       </c>
       <c r="C40">
-        <v>-0.02897347786509445</v>
+        <v>-0.03431992038157389</v>
       </c>
       <c r="D40">
-        <v>0.05583954841095556</v>
+        <v>0.01919030167385354</v>
       </c>
       <c r="E40">
-        <v>-0.1017699671585708</v>
+        <v>-0.113695682965556</v>
       </c>
       <c r="F40">
-        <v>-0.005911572152124645</v>
+        <v>-0.00180849199577396</v>
       </c>
       <c r="G40">
-        <v>0.03764501475039043</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.007747107433469703</v>
+      </c>
+      <c r="H40">
+        <v>0.07766703167235242</v>
+      </c>
+      <c r="I40">
+        <v>-0.02932675585489652</v>
+      </c>
+      <c r="J40">
+        <v>-0.005084536387100853</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>-0.002783368211608794</v>
+        <v>-0.0003990572110974128</v>
       </c>
       <c r="C41">
-        <v>-0.005793761083182857</v>
+        <v>-0.00873192047236529</v>
       </c>
       <c r="D41">
-        <v>0.0221257230411211</v>
+        <v>0.00381281690672955</v>
       </c>
       <c r="E41">
-        <v>-0.01218004380689513</v>
+        <v>-0.01858058163362295</v>
       </c>
       <c r="F41">
-        <v>-0.02226120338184897</v>
+        <v>0.007509606717413264</v>
       </c>
       <c r="G41">
-        <v>0.02065338335578188</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.02831787241091374</v>
+      </c>
+      <c r="H41">
+        <v>0.03886735965766213</v>
+      </c>
+      <c r="I41">
+        <v>-0.01463930654389605</v>
+      </c>
+      <c r="J41">
+        <v>0.02749965142215033</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>-0.1655280044301936</v>
+        <v>-0.243609640021437</v>
       </c>
       <c r="C42">
-        <v>-0.1472122705233965</v>
+        <v>-0.1518346155859829</v>
       </c>
       <c r="D42">
-        <v>-0.8418119176002744</v>
+        <v>-0.9130677855509136</v>
       </c>
       <c r="E42">
-        <v>-0.4114943490864436</v>
+        <v>0.1395868306011463</v>
       </c>
       <c r="F42">
-        <v>-0.09715569258891632</v>
+        <v>-0.1823817369252753</v>
       </c>
       <c r="G42">
-        <v>-0.0837153375633011</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.006686096337957996</v>
+      </c>
+      <c r="H42">
+        <v>-0.01167078315462391</v>
+      </c>
+      <c r="I42">
+        <v>-0.02950335993305767</v>
+      </c>
+      <c r="J42">
+        <v>0.04356019094616732</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>-0.008168425400278035</v>
+        <v>-0.0004480946984301436</v>
       </c>
       <c r="C43">
-        <v>-0.009461486893288759</v>
+        <v>-0.01392643296363818</v>
       </c>
       <c r="D43">
-        <v>0.03340977756748079</v>
+        <v>0.005393531145798617</v>
       </c>
       <c r="E43">
-        <v>-0.02507889257715265</v>
+        <v>-0.03256656736330463</v>
       </c>
       <c r="F43">
-        <v>0.009551876125059918</v>
+        <v>0.004962689291840068</v>
       </c>
       <c r="G43">
-        <v>0.02078640872093232</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.006531335087538144</v>
+      </c>
+      <c r="H43">
+        <v>0.03534745607294289</v>
+      </c>
+      <c r="I43">
+        <v>-0.006981628859967879</v>
+      </c>
+      <c r="J43">
+        <v>0.02046452585064166</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>-0.04240601073399682</v>
+        <v>-0.02862862575173077</v>
       </c>
       <c r="C44">
-        <v>-0.02934874793095599</v>
+        <v>-0.0341119042741564</v>
       </c>
       <c r="D44">
-        <v>0.06438685791861826</v>
+        <v>-0.0006445814165123882</v>
       </c>
       <c r="E44">
-        <v>-0.09586080486944222</v>
+        <v>-0.1223946879337135</v>
       </c>
       <c r="F44">
-        <v>-0.03768283133848609</v>
+        <v>0.02806735234312635</v>
       </c>
       <c r="G44">
-        <v>0.07619254513786329</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.02749537985658289</v>
+      </c>
+      <c r="H44">
+        <v>0.1111104399090895</v>
+      </c>
+      <c r="I44">
+        <v>-0.04111967247392708</v>
+      </c>
+      <c r="J44">
+        <v>0.006228599954270831</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>-0.02030022978459121</v>
+        <v>-0.0198322202649739</v>
       </c>
       <c r="C46">
-        <v>-0.01539887566832171</v>
+        <v>-0.02703162814774264</v>
       </c>
       <c r="D46">
-        <v>0.03831131638879933</v>
+        <v>0.01591817368486099</v>
       </c>
       <c r="E46">
-        <v>-0.01680028090064751</v>
+        <v>-0.05005049670892622</v>
       </c>
       <c r="F46">
-        <v>-0.01856228382356752</v>
+        <v>0.01198551123885191</v>
       </c>
       <c r="G46">
-        <v>0.02444485160205001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.01693244586172864</v>
+      </c>
+      <c r="H46">
+        <v>0.06111709879397354</v>
+      </c>
+      <c r="I46">
+        <v>-0.008991184206630027</v>
+      </c>
+      <c r="J46">
+        <v>0.03169337688109829</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>-0.0778740451426603</v>
+        <v>-0.08697040380728485</v>
       </c>
       <c r="C47">
-        <v>-0.003963928470436146</v>
+        <v>-0.01345933185339045</v>
       </c>
       <c r="D47">
-        <v>0.01926404614563068</v>
+        <v>0.02113114814518837</v>
       </c>
       <c r="E47">
-        <v>0.008191519751565153</v>
+        <v>-0.00781393225317184</v>
       </c>
       <c r="F47">
-        <v>-0.003521894348901695</v>
+        <v>-0.0009760220012040013</v>
       </c>
       <c r="G47">
-        <v>0.03559235742648898</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.02750456773531628</v>
+      </c>
+      <c r="H47">
+        <v>0.07087768530818184</v>
+      </c>
+      <c r="I47">
+        <v>-0.02036109991240922</v>
+      </c>
+      <c r="J47">
+        <v>0.02550439489926019</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>-0.009865552109922539</v>
+        <v>-0.01284970841976378</v>
       </c>
       <c r="C48">
-        <v>-0.01667604686919939</v>
+        <v>-0.01959096127398802</v>
       </c>
       <c r="D48">
-        <v>0.02649117438903045</v>
+        <v>0.004096098393537168</v>
       </c>
       <c r="E48">
-        <v>-0.03047927854172361</v>
+        <v>-0.04183534215247203</v>
       </c>
       <c r="F48">
-        <v>-0.005602508498215907</v>
+        <v>0.01060042274392214</v>
       </c>
       <c r="G48">
-        <v>0.0002768560068879557</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.002839198740243265</v>
+      </c>
+      <c r="H48">
+        <v>0.02394778015366985</v>
+      </c>
+      <c r="I48">
+        <v>-0.01113288680950033</v>
+      </c>
+      <c r="J48">
+        <v>0.01136273855314988</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>-0.07310908822053316</v>
+        <v>-0.07967770982950079</v>
       </c>
       <c r="C50">
-        <v>-0.03248518384050137</v>
+        <v>-0.0347721107868921</v>
       </c>
       <c r="D50">
-        <v>0.01158238678093495</v>
+        <v>0.01718570624086316</v>
       </c>
       <c r="E50">
-        <v>0.01538957496976355</v>
+        <v>-0.01380444573884576</v>
       </c>
       <c r="F50">
-        <v>-0.01062202420515483</v>
+        <v>-0.003551882913089541</v>
       </c>
       <c r="G50">
-        <v>0.005573535494632978</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.006546316143096613</v>
+      </c>
+      <c r="H50">
+        <v>0.05132823240402359</v>
+      </c>
+      <c r="I50">
+        <v>-0.02077384460017988</v>
+      </c>
+      <c r="J50">
+        <v>-0.007337591948916773</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>-0.06607820740115057</v>
+        <v>-0.04682795253047507</v>
       </c>
       <c r="C51">
-        <v>0.03075344335323281</v>
+        <v>0.008868835369556348</v>
       </c>
       <c r="D51">
-        <v>0.05605396119019455</v>
+        <v>0.004847071669275112</v>
       </c>
       <c r="E51">
-        <v>-0.06235319711952411</v>
+        <v>-0.1062723240596134</v>
       </c>
       <c r="F51">
-        <v>-0.04357931371343153</v>
+        <v>0.001844094796874124</v>
       </c>
       <c r="G51">
-        <v>0.01439056981647214</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.0477395790295091</v>
+      </c>
+      <c r="H51">
+        <v>0.05166263031980857</v>
+      </c>
+      <c r="I51">
+        <v>-0.0273772817882488</v>
+      </c>
+      <c r="J51">
+        <v>0.05790552131395724</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>-0.1391682078909452</v>
+        <v>-0.1284292135816944</v>
       </c>
       <c r="C53">
-        <v>-0.006378541549537595</v>
+        <v>-0.03169771986062372</v>
       </c>
       <c r="D53">
-        <v>0.0403618761592296</v>
+        <v>0.0463184883374104</v>
       </c>
       <c r="E53">
-        <v>0.02187807720087517</v>
+        <v>0.01273281448735072</v>
       </c>
       <c r="F53">
-        <v>-0.009730216151476076</v>
+        <v>-0.006613256552859281</v>
       </c>
       <c r="G53">
-        <v>0.0285093740145954</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.02942422929545968</v>
+      </c>
+      <c r="H53">
+        <v>0.01228100106404428</v>
+      </c>
+      <c r="I53">
+        <v>0.009548255354099285</v>
+      </c>
+      <c r="J53">
+        <v>0.08767023731585268</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>-0.01849389185782176</v>
+        <v>-0.02064138193664435</v>
       </c>
       <c r="C54">
-        <v>0.007227823775958498</v>
+        <v>-0.004053103750541547</v>
       </c>
       <c r="D54">
-        <v>0.04571687353753578</v>
+        <v>0.02226159049117639</v>
       </c>
       <c r="E54">
-        <v>-0.02527419711404842</v>
+        <v>-0.04701531815815856</v>
       </c>
       <c r="F54">
-        <v>-0.029585043377697</v>
+        <v>0.02144168865188209</v>
       </c>
       <c r="G54">
-        <v>0.0319976042443233</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.03031690286063391</v>
+      </c>
+      <c r="H54">
+        <v>0.06782126393176562</v>
+      </c>
+      <c r="I54">
+        <v>-0.04219006640566862</v>
+      </c>
+      <c r="J54">
+        <v>0.02464174100676052</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>-0.09609636975645998</v>
+        <v>-0.1023742892577361</v>
       </c>
       <c r="C55">
-        <v>0.005449708401295264</v>
+        <v>-0.01475046676762675</v>
       </c>
       <c r="D55">
-        <v>0.03665068995567938</v>
+        <v>0.02993108889415211</v>
       </c>
       <c r="E55">
-        <v>0.003568047199037837</v>
+        <v>0.01308222422589426</v>
       </c>
       <c r="F55">
-        <v>0.0215495880135615</v>
+        <v>0.03285076880689184</v>
       </c>
       <c r="G55">
-        <v>0.03241651883478877</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.004878826461627362</v>
+      </c>
+      <c r="H55">
+        <v>0.03157377727341932</v>
+      </c>
+      <c r="I55">
+        <v>0.02222667956014877</v>
+      </c>
+      <c r="J55">
+        <v>0.06983941789147273</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>-0.17748886502997</v>
+        <v>-0.1695785194790222</v>
       </c>
       <c r="C56">
-        <v>0.02564770134123647</v>
+        <v>-0.009112894545029494</v>
       </c>
       <c r="D56">
-        <v>0.04676714290082728</v>
+        <v>0.09003545993009988</v>
       </c>
       <c r="E56">
-        <v>0.07904883077038109</v>
+        <v>0.06632204848117709</v>
       </c>
       <c r="F56">
-        <v>0.0469726464414161</v>
+        <v>0.005542637923051963</v>
       </c>
       <c r="G56">
-        <v>0.02504509510431474</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.01410941791685538</v>
+      </c>
+      <c r="H56">
+        <v>-0.03278001150169485</v>
+      </c>
+      <c r="I56">
+        <v>0.05345605299672798</v>
+      </c>
+      <c r="J56">
+        <v>0.07955370186413879</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>-0.09560587916529588</v>
+        <v>-0.07560138418953107</v>
       </c>
       <c r="C57">
-        <v>-0.01914120511372119</v>
+        <v>-0.02177581432419237</v>
       </c>
       <c r="D57">
-        <v>0.048273737769247</v>
+        <v>0.004110468372360212</v>
       </c>
       <c r="E57">
-        <v>-0.06362894691383393</v>
+        <v>-0.08522320987430626</v>
       </c>
       <c r="F57">
-        <v>0.007765650628439808</v>
+        <v>0.008422273598702415</v>
       </c>
       <c r="G57">
-        <v>0.03221002995111919</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.006153868062172726</v>
+      </c>
+      <c r="H57">
+        <v>0.05151194252836635</v>
+      </c>
+      <c r="I57">
+        <v>0.009250416308166387</v>
+      </c>
+      <c r="J57">
+        <v>0.01812623456219577</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>-0.1732696202900616</v>
+        <v>-0.1935901359296717</v>
       </c>
       <c r="C58">
-        <v>0.01164807579169405</v>
+        <v>-0.03781590971430955</v>
       </c>
       <c r="D58">
-        <v>-0.004990515300052399</v>
+        <v>-0.004527997356225283</v>
       </c>
       <c r="E58">
-        <v>-0.07009185922322814</v>
+        <v>-0.1413921163163389</v>
       </c>
       <c r="F58">
-        <v>0.07773444018741547</v>
+        <v>-0.01172346697207745</v>
       </c>
       <c r="G58">
-        <v>0.13319037654565</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.1516700035786147</v>
+      </c>
+      <c r="H58">
+        <v>0.2907923983984456</v>
+      </c>
+      <c r="I58">
+        <v>-0.1097880331272173</v>
+      </c>
+      <c r="J58">
+        <v>-0.1887922812055389</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>0.01608445683759344</v>
+        <v>-0.01689431247457996</v>
       </c>
       <c r="C59">
-        <v>0.2011956358809423</v>
+        <v>0.1954831887441728</v>
       </c>
       <c r="D59">
-        <v>0.03634922988715013</v>
+        <v>0.008968385537885905</v>
       </c>
       <c r="E59">
-        <v>-0.03523002259640381</v>
+        <v>-0.05540597448523072</v>
       </c>
       <c r="F59">
-        <v>0.005083009973188567</v>
+        <v>-0.01189160969078617</v>
       </c>
       <c r="G59">
-        <v>-0.05189857223957629</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.0008519119395458364</v>
+      </c>
+      <c r="H59">
+        <v>-0.03807236088614193</v>
+      </c>
+      <c r="I59">
+        <v>-0.07866870115003306</v>
+      </c>
+      <c r="J59">
+        <v>0.03716843106584725</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>-0.1685774458721432</v>
+        <v>-0.1754977586456792</v>
       </c>
       <c r="C60">
-        <v>0.1212038141630893</v>
+        <v>0.06704633222910812</v>
       </c>
       <c r="D60">
-        <v>0.1191516510298871</v>
+        <v>0.01585980987530135</v>
       </c>
       <c r="E60">
-        <v>-0.1521096256399462</v>
+        <v>-0.2104316361271583</v>
       </c>
       <c r="F60">
-        <v>0.0009868276005796015</v>
+        <v>-0.04515880089154267</v>
       </c>
       <c r="G60">
-        <v>-0.1407579335866148</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.05868915769408487</v>
+      </c>
+      <c r="H60">
+        <v>-0.224783003234105</v>
+      </c>
+      <c r="I60">
+        <v>0.1040332776606815</v>
+      </c>
+      <c r="J60">
+        <v>-0.0456177826210871</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>-0.05059486675873562</v>
+        <v>-0.03992415636218164</v>
       </c>
       <c r="C61">
-        <v>-0.0021135506767504</v>
+        <v>-0.0146717458767946</v>
       </c>
       <c r="D61">
-        <v>0.01500842720827741</v>
+        <v>0.001024065850218269</v>
       </c>
       <c r="E61">
-        <v>-0.04083728652578915</v>
+        <v>-0.04606202908842191</v>
       </c>
       <c r="F61">
-        <v>-0.003873261725733157</v>
+        <v>0.001211740607065441</v>
       </c>
       <c r="G61">
-        <v>-0.03937506957131108</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.0001363672358072476</v>
+      </c>
+      <c r="H61">
+        <v>0.003679110171668557</v>
+      </c>
+      <c r="I61">
+        <v>0.0244132811722115</v>
+      </c>
+      <c r="J61">
+        <v>-0.03205160384437505</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>-0.03347254318557577</v>
+        <v>-0.02747696271575902</v>
       </c>
       <c r="C63">
-        <v>0.007502705592946884</v>
+        <v>-0.01249296502855799</v>
       </c>
       <c r="D63">
-        <v>0.02500028362363334</v>
+        <v>0.008756783401253018</v>
       </c>
       <c r="E63">
-        <v>-0.0392328656014378</v>
+        <v>-0.03864170739269406</v>
       </c>
       <c r="F63">
-        <v>-0.001216709442759031</v>
+        <v>0.009919591568196223</v>
       </c>
       <c r="G63">
-        <v>0.01380673120581341</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.001464684334055226</v>
+      </c>
+      <c r="H63">
+        <v>0.04150043738790213</v>
+      </c>
+      <c r="I63">
+        <v>-0.01638249473207565</v>
+      </c>
+      <c r="J63">
+        <v>0.04035605089125003</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>-0.09337466730296709</v>
+        <v>-0.0680388584761383</v>
       </c>
       <c r="C64">
-        <v>-0.002424072333134224</v>
+        <v>-0.02628693522738235</v>
       </c>
       <c r="D64">
-        <v>0.1151100982965731</v>
+        <v>0.03703431046243177</v>
       </c>
       <c r="E64">
-        <v>-0.05132242543825701</v>
+        <v>-0.06832717335584329</v>
       </c>
       <c r="F64">
-        <v>-0.07514431859793649</v>
+        <v>0.06050881228521773</v>
       </c>
       <c r="G64">
-        <v>-0.02797350169647508</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.06723857671806682</v>
+      </c>
+      <c r="H64">
+        <v>-0.008016351264192144</v>
+      </c>
+      <c r="I64">
+        <v>0.01898486110322069</v>
+      </c>
+      <c r="J64">
+        <v>0.06666521152052403</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>-0.008231701407029822</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>-0.007320850993328406</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>0.001712133830471762</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-0.003916707031438437</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>-0.00352221026762479</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.0136834048872808</v>
+      </c>
+      <c r="H65">
+        <v>0.002880013632338117</v>
+      </c>
+      <c r="I65">
+        <v>0.004593857929056537</v>
+      </c>
+      <c r="J65">
+        <v>0.001230436529151956</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>-0.09999932786527352</v>
+        <v>-0.07675329199646184</v>
       </c>
       <c r="C66">
-        <v>-0.01128320717376437</v>
+        <v>-0.03498358468777759</v>
       </c>
       <c r="D66">
-        <v>0.07912821831003379</v>
+        <v>0.03983843219409405</v>
       </c>
       <c r="E66">
-        <v>-0.05487914286174352</v>
+        <v>-0.08805777096582691</v>
       </c>
       <c r="F66">
-        <v>-0.007796853181154919</v>
+        <v>0.00185111732510518</v>
       </c>
       <c r="G66">
-        <v>-0.01993613128079471</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.003847849218252394</v>
+      </c>
+      <c r="H66">
+        <v>0.02043333363916299</v>
+      </c>
+      <c r="I66">
+        <v>0.04095196930878808</v>
+      </c>
+      <c r="J66">
+        <v>-0.01546644430488308</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>-0.05709046776568547</v>
+        <v>-0.0396972270298649</v>
       </c>
       <c r="C67">
-        <v>0.01555060262031564</v>
+        <v>0.00788722177414943</v>
       </c>
       <c r="D67">
-        <v>0.02391770584052382</v>
+        <v>0.003494458406737603</v>
       </c>
       <c r="E67">
-        <v>-0.02139715590325002</v>
+        <v>-0.0410832770580046</v>
       </c>
       <c r="F67">
-        <v>0.0001582194325284084</v>
+        <v>0.007050885712542705</v>
       </c>
       <c r="G67">
-        <v>0.01860254166556148</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.02244743349942831</v>
+      </c>
+      <c r="H67">
+        <v>-0.001495148498108727</v>
+      </c>
+      <c r="I67">
+        <v>0.02873272893968454</v>
+      </c>
+      <c r="J67">
+        <v>-0.02098230795617081</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>0.01261675460736438</v>
+        <v>-0.02560361736738463</v>
       </c>
       <c r="C68">
-        <v>0.2472419321749664</v>
+        <v>0.2365993075447114</v>
       </c>
       <c r="D68">
-        <v>0.01343562017214983</v>
+        <v>-0.0009078529950272045</v>
       </c>
       <c r="E68">
-        <v>-0.03654260897807345</v>
+        <v>-0.03893584748557207</v>
       </c>
       <c r="F68">
-        <v>0.01745238798419496</v>
+        <v>0.001870474014864904</v>
       </c>
       <c r="G68">
-        <v>-0.0407659397394889</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.01251621062523009</v>
+      </c>
+      <c r="H68">
+        <v>-0.04143417677142842</v>
+      </c>
+      <c r="I68">
+        <v>-0.1531863048978951</v>
+      </c>
+      <c r="J68">
+        <v>0.0852554536478661</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>-0.06397848320850723</v>
+        <v>-0.06862469434863477</v>
       </c>
       <c r="C69">
-        <v>-0.005969405345023607</v>
+        <v>-0.009853163043598102</v>
       </c>
       <c r="D69">
-        <v>0.02666846009643521</v>
+        <v>0.02674433856385394</v>
       </c>
       <c r="E69">
-        <v>0.01160809464185948</v>
+        <v>-0.01377782947492025</v>
       </c>
       <c r="F69">
-        <v>0.005495796599709374</v>
+        <v>-0.005620368577732865</v>
       </c>
       <c r="G69">
-        <v>-0.001968023871216338</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.0180643514217952</v>
+      </c>
+      <c r="H69">
+        <v>0.04890938044029219</v>
+      </c>
+      <c r="I69">
+        <v>-0.001517725053609637</v>
+      </c>
+      <c r="J69">
+        <v>0.006330329719603124</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.009887018394041238</v>
+        <v>-0.03014880462538469</v>
       </c>
       <c r="C71">
-        <v>0.2199892735345648</v>
+        <v>0.2259088356475845</v>
       </c>
       <c r="D71">
-        <v>0.01880434205492802</v>
+        <v>-0.02170044484254096</v>
       </c>
       <c r="E71">
-        <v>-0.05438707407193913</v>
+        <v>-0.05732875106662168</v>
       </c>
       <c r="F71">
-        <v>0.01652540668694678</v>
+        <v>-0.02521457738570664</v>
       </c>
       <c r="G71">
-        <v>-0.1533454893321311</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.003265612332890008</v>
+      </c>
+      <c r="H71">
+        <v>-0.05980570852250047</v>
+      </c>
+      <c r="I71">
+        <v>-0.1610221879763219</v>
+      </c>
+      <c r="J71">
+        <v>0.02177991295541185</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>-0.1019667978130405</v>
+        <v>-0.1111062166324156</v>
       </c>
       <c r="C72">
-        <v>0.02549593772563427</v>
+        <v>0.01049781988356125</v>
       </c>
       <c r="D72">
-        <v>0.07431390496008775</v>
+        <v>0.05924878326112825</v>
       </c>
       <c r="E72">
-        <v>-0.03967724975847564</v>
+        <v>-0.08489473443021085</v>
       </c>
       <c r="F72">
-        <v>0.01108776501106289</v>
+        <v>0.01586549313486337</v>
       </c>
       <c r="G72">
-        <v>0.0162425925860004</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.03337635468541111</v>
+      </c>
+      <c r="H72">
+        <v>0.001523035306942487</v>
+      </c>
+      <c r="I72">
+        <v>0.0003146838349775218</v>
+      </c>
+      <c r="J72">
+        <v>-0.02363821568730505</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>-0.2620230989256189</v>
+        <v>-0.2709017041793393</v>
       </c>
       <c r="C73">
-        <v>0.2225784676119159</v>
+        <v>0.1518938940349688</v>
       </c>
       <c r="D73">
-        <v>0.1213357500326372</v>
+        <v>-0.01199743890713941</v>
       </c>
       <c r="E73">
-        <v>-0.2399802186486186</v>
+        <v>-0.3148589173720948</v>
       </c>
       <c r="F73">
-        <v>0.05129679565299097</v>
+        <v>-0.082900144951979</v>
       </c>
       <c r="G73">
-        <v>-0.342531707711767</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.1366145081348109</v>
+      </c>
+      <c r="H73">
+        <v>-0.4147341834055862</v>
+      </c>
+      <c r="I73">
+        <v>0.2453151107081849</v>
+      </c>
+      <c r="J73">
+        <v>-0.31663211414277</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>-0.1539094381509406</v>
+        <v>-0.1535691174679745</v>
       </c>
       <c r="C74">
-        <v>0.01727295717595348</v>
+        <v>-0.006922238593282341</v>
       </c>
       <c r="D74">
-        <v>0.04255353245353019</v>
+        <v>0.04789466633394374</v>
       </c>
       <c r="E74">
-        <v>0.01311324460680207</v>
+        <v>0.02553598966266793</v>
       </c>
       <c r="F74">
-        <v>0.04767321029368591</v>
+        <v>0.00111132131728325</v>
       </c>
       <c r="G74">
-        <v>0.01181318482656796</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.01777565794781754</v>
+      </c>
+      <c r="H74">
+        <v>-0.02775803719010656</v>
+      </c>
+      <c r="I74">
+        <v>0.06004305054763633</v>
+      </c>
+      <c r="J74">
+        <v>0.08185874714742468</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>-0.237456669388162</v>
+        <v>-0.2455375741844847</v>
       </c>
       <c r="C75">
-        <v>0.02611757747713538</v>
+        <v>-0.01200314244964216</v>
       </c>
       <c r="D75">
-        <v>0.00360163036514727</v>
+        <v>0.1050192447715265</v>
       </c>
       <c r="E75">
-        <v>0.1108412713560883</v>
+        <v>0.112279829977288</v>
       </c>
       <c r="F75">
-        <v>0.02311846640814506</v>
+        <v>-0.02045919401854654</v>
       </c>
       <c r="G75">
-        <v>0.08784947654281984</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.02311582473542978</v>
+      </c>
+      <c r="H75">
+        <v>-0.01066804896922726</v>
+      </c>
+      <c r="I75">
+        <v>0.05141306243145141</v>
+      </c>
+      <c r="J75">
+        <v>0.1829815977323485</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>-0.2362172660774788</v>
+        <v>-0.2609238057880451</v>
       </c>
       <c r="C76">
-        <v>0.01710590926927842</v>
+        <v>-0.001356018049289391</v>
       </c>
       <c r="D76">
-        <v>0.05314931467827497</v>
+        <v>0.1233109692207291</v>
       </c>
       <c r="E76">
-        <v>0.1017551084850632</v>
+        <v>0.1197151420121554</v>
       </c>
       <c r="F76">
-        <v>0.03323679673723182</v>
+        <v>0.01330597727612141</v>
       </c>
       <c r="G76">
-        <v>0.04407891589191434</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.01633831047309017</v>
+      </c>
+      <c r="H76">
+        <v>-0.00748189404008015</v>
+      </c>
+      <c r="I76">
+        <v>0.1005854934964651</v>
+      </c>
+      <c r="J76">
+        <v>0.1596332004114152</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>-0.1173418597842889</v>
+        <v>-0.1268191888160518</v>
       </c>
       <c r="C77">
-        <v>-0.01526826226028858</v>
+        <v>-0.04185076234725946</v>
       </c>
       <c r="D77">
-        <v>0.06164189120468567</v>
+        <v>-0.05417971587853308</v>
       </c>
       <c r="E77">
-        <v>-0.180157807515048</v>
+        <v>-0.1836553462788063</v>
       </c>
       <c r="F77">
-        <v>0.01197783736665406</v>
+        <v>0.0530768461561443</v>
       </c>
       <c r="G77">
-        <v>0.08392107772234796</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.0211078689796657</v>
+      </c>
+      <c r="H77">
+        <v>0.1408513816546222</v>
+      </c>
+      <c r="I77">
+        <v>-0.152693157867704</v>
+      </c>
+      <c r="J77">
+        <v>0.1104752702490518</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>-0.09414030858639894</v>
+        <v>-0.08393068609626365</v>
       </c>
       <c r="C78">
-        <v>-0.02777401554706894</v>
+        <v>-0.05377380319988435</v>
       </c>
       <c r="D78">
-        <v>0.02235056359457105</v>
+        <v>-0.001756157133186637</v>
       </c>
       <c r="E78">
-        <v>-0.09510733063483708</v>
+        <v>-0.08638697011539684</v>
       </c>
       <c r="F78">
-        <v>-0.001806279076601195</v>
+        <v>0.03506265659264469</v>
       </c>
       <c r="G78">
-        <v>-0.03036523335427597</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.01313796797936583</v>
+      </c>
+      <c r="H78">
+        <v>0.01720075772470901</v>
+      </c>
+      <c r="I78">
+        <v>-0.02110160464544234</v>
+      </c>
+      <c r="J78">
+        <v>0.0221329776727968</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>-0.07740260177889015</v>
+        <v>-0.0881190416148725</v>
       </c>
       <c r="C80">
-        <v>0.004913124126534441</v>
+        <v>0.05506118315681901</v>
       </c>
       <c r="D80">
-        <v>-0.03466691674152112</v>
+        <v>-0.1640443831366265</v>
       </c>
       <c r="E80">
-        <v>0.009573738722523659</v>
+        <v>0.1375733777346816</v>
       </c>
       <c r="F80">
-        <v>-0.0007032492050693743</v>
+        <v>0.9435978167008103</v>
       </c>
       <c r="G80">
-        <v>0.3630427378778512</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.02031154796719645</v>
+      </c>
+      <c r="H80">
+        <v>-0.145046349658127</v>
+      </c>
+      <c r="I80">
+        <v>0.01524487961022044</v>
+      </c>
+      <c r="J80">
+        <v>-0.1124020157207284</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>-0.169663159596992</v>
+        <v>-0.1777272918949183</v>
       </c>
       <c r="C81">
-        <v>0.01765530706622032</v>
+        <v>-0.0001587242661450021</v>
       </c>
       <c r="D81">
-        <v>-0.00244384591242536</v>
+        <v>0.09173302031576122</v>
       </c>
       <c r="E81">
-        <v>0.1313652022343352</v>
+        <v>0.1379768508830607</v>
       </c>
       <c r="F81">
-        <v>0.05007915056391154</v>
+        <v>-0.01973974427625811</v>
       </c>
       <c r="G81">
-        <v>0.06481323513488495</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.01347320724078173</v>
+      </c>
+      <c r="H81">
+        <v>-0.01252154585423516</v>
+      </c>
+      <c r="I81">
+        <v>0.05526813273649028</v>
+      </c>
+      <c r="J81">
+        <v>0.1384096034961827</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>-0.07441042602504701</v>
+        <v>-0.06441910145255891</v>
       </c>
       <c r="C83">
-        <v>-0.02488899066280512</v>
+        <v>-0.03610785884541777</v>
       </c>
       <c r="D83">
-        <v>-0.03757123741441003</v>
+        <v>-0.04635879487132456</v>
       </c>
       <c r="E83">
-        <v>-0.101362841899817</v>
+        <v>-0.06994402144959917</v>
       </c>
       <c r="F83">
-        <v>-0.0722389088779567</v>
+        <v>-0.009671951604926052</v>
       </c>
       <c r="G83">
-        <v>0.05189110046408778</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.04774990841490121</v>
+      </c>
+      <c r="H83">
+        <v>0.04634351967838402</v>
+      </c>
+      <c r="I83">
+        <v>0.008222208684975188</v>
+      </c>
+      <c r="J83">
+        <v>0.08531340185340212</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>-0.249803312322148</v>
+        <v>-0.2582733814951313</v>
       </c>
       <c r="C85">
-        <v>-0.03532028915278679</v>
+        <v>-0.04866345902112419</v>
       </c>
       <c r="D85">
-        <v>-0.01164405422756242</v>
+        <v>0.08952546853241894</v>
       </c>
       <c r="E85">
-        <v>0.1118742963432594</v>
+        <v>0.1388217443106374</v>
       </c>
       <c r="F85">
-        <v>0.006967058402830824</v>
+        <v>0.01799325984792593</v>
       </c>
       <c r="G85">
-        <v>0.1280905463945874</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.02132324254411299</v>
+      </c>
+      <c r="H85">
+        <v>0.02944483626707084</v>
+      </c>
+      <c r="I85">
+        <v>0.08057051623324159</v>
+      </c>
+      <c r="J85">
+        <v>0.1981024634200506</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>-0.0453263751457121</v>
+        <v>-0.02757212374094327</v>
       </c>
       <c r="C86">
-        <v>-0.03109944691940215</v>
+        <v>-0.0442932273060867</v>
       </c>
       <c r="D86">
-        <v>0.03870113777330981</v>
+        <v>0.00513646025814809</v>
       </c>
       <c r="E86">
-        <v>-0.05099710304053084</v>
+        <v>-0.06378282148842383</v>
       </c>
       <c r="F86">
-        <v>0.004178597992828452</v>
+        <v>0.03140714633082663</v>
       </c>
       <c r="G86">
-        <v>-0.007184290583664697</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.008227283244849996</v>
+      </c>
+      <c r="H86">
+        <v>0.03186792000644498</v>
+      </c>
+      <c r="I86">
+        <v>-0.07713654564943172</v>
+      </c>
+      <c r="J86">
+        <v>-0.008731982172075561</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>-0.03200104774938881</v>
+        <v>-0.03856994042521746</v>
       </c>
       <c r="C87">
-        <v>0.05183194772626452</v>
+        <v>0.02425974729142781</v>
       </c>
       <c r="D87">
-        <v>0.0360020845884786</v>
+        <v>0.0006196595525924727</v>
       </c>
       <c r="E87">
-        <v>-0.04966307621390444</v>
+        <v>-0.08362778225661481</v>
       </c>
       <c r="F87">
-        <v>-0.01417096166799123</v>
+        <v>0.0150667054867579</v>
       </c>
       <c r="G87">
-        <v>-0.1743427111837213</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.006130809711667718</v>
+      </c>
+      <c r="H87">
+        <v>-0.01680162552065027</v>
+      </c>
+      <c r="I87">
+        <v>-0.03286236719057614</v>
+      </c>
+      <c r="J87">
+        <v>-0.1104754083250944</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>-0.03192670608177776</v>
+        <v>-0.02051811156565704</v>
       </c>
       <c r="C88">
-        <v>-0.02250613045219358</v>
+        <v>-0.01472557236183356</v>
       </c>
       <c r="D88">
-        <v>0.01817812991479647</v>
+        <v>0.01235370037529796</v>
       </c>
       <c r="E88">
-        <v>-0.006625051631921099</v>
+        <v>-0.01270546501809346</v>
       </c>
       <c r="F88">
-        <v>0.002947707151718955</v>
+        <v>0.02580364315679859</v>
       </c>
       <c r="G88">
-        <v>0.0513437596391214</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.0291850371512855</v>
+      </c>
+      <c r="H88">
+        <v>0.04699506715059486</v>
+      </c>
+      <c r="I88">
+        <v>0.005931792654607328</v>
+      </c>
+      <c r="J88">
+        <v>-0.01973108260974819</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>0.02677376694697444</v>
+        <v>-0.03980090890526645</v>
       </c>
       <c r="C89">
-        <v>0.4365284730778606</v>
+        <v>0.4011861614026505</v>
       </c>
       <c r="D89">
-        <v>-0.07849127471031836</v>
+        <v>-0.05632098034977961</v>
       </c>
       <c r="E89">
-        <v>-0.03839863662416918</v>
+        <v>-0.04856432779998138</v>
       </c>
       <c r="F89">
-        <v>-0.04482559364165235</v>
+        <v>-0.03555036404476684</v>
       </c>
       <c r="G89">
-        <v>0.02831244406306763</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.07273651118555319</v>
+      </c>
+      <c r="H89">
+        <v>0.01286517409922999</v>
+      </c>
+      <c r="I89">
+        <v>-0.2524129103938041</v>
+      </c>
+      <c r="J89">
+        <v>0.1650265750041996</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>0.03318709950912803</v>
+        <v>-0.01816902514978812</v>
       </c>
       <c r="C90">
-        <v>0.3029746881416951</v>
+        <v>0.3254696647608358</v>
       </c>
       <c r="D90">
-        <v>0.003037145112835538</v>
+        <v>-0.03256970124055842</v>
       </c>
       <c r="E90">
-        <v>-0.04092948341839923</v>
+        <v>-0.03665269628089268</v>
       </c>
       <c r="F90">
-        <v>0.00935227465118986</v>
+        <v>0.005581740525180851</v>
       </c>
       <c r="G90">
-        <v>-0.06405343979952888</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.01054201424589233</v>
+      </c>
+      <c r="H90">
+        <v>-0.04482341188188043</v>
+      </c>
+      <c r="I90">
+        <v>-0.1749975940399648</v>
+      </c>
+      <c r="J90">
+        <v>0.1139522236557549</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>-0.3247421857795706</v>
+        <v>-0.3283212141009235</v>
       </c>
       <c r="C91">
-        <v>0.01061969447864276</v>
+        <v>-0.01676798860494733</v>
       </c>
       <c r="D91">
-        <v>-0.06494672431053551</v>
+        <v>0.1072970264140578</v>
       </c>
       <c r="E91">
-        <v>0.2394806537489212</v>
+        <v>0.2583649463083115</v>
       </c>
       <c r="F91">
-        <v>0.07071230948375312</v>
+        <v>-0.02411686819951934</v>
       </c>
       <c r="G91">
-        <v>0.2958057703049219</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.02406262723285124</v>
+      </c>
+      <c r="H91">
+        <v>0.003746705571245642</v>
+      </c>
+      <c r="I91">
+        <v>0.1355513239416814</v>
+      </c>
+      <c r="J91">
+        <v>0.3547566980343753</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>0.03374892260531807</v>
+        <v>-0.06601203730858948</v>
       </c>
       <c r="C92">
-        <v>0.4586050235917265</v>
+        <v>0.4827919250451176</v>
       </c>
       <c r="D92">
-        <v>-0.2173123846946121</v>
+        <v>-0.07696861687632393</v>
       </c>
       <c r="E92">
-        <v>0.03627985291368031</v>
+        <v>0.1351009993392285</v>
       </c>
       <c r="F92">
-        <v>0.0487835518881085</v>
+        <v>-0.0101527611599112</v>
       </c>
       <c r="G92">
-        <v>0.4707682736341632</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.0414141946049199</v>
+      </c>
+      <c r="H92">
+        <v>0.5799084009512971</v>
+      </c>
+      <c r="I92">
+        <v>0.5200543264817424</v>
+      </c>
+      <c r="J92">
+        <v>-0.2835136641340639</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>0.03440224216812264</v>
+        <v>-0.02390162170600093</v>
       </c>
       <c r="C93">
-        <v>0.3690673610503301</v>
+        <v>0.4056539957758897</v>
       </c>
       <c r="D93">
-        <v>-0.08000731296842513</v>
+        <v>-0.06342383987298526</v>
       </c>
       <c r="E93">
-        <v>-0.00104571593376951</v>
+        <v>0.02207219955584129</v>
       </c>
       <c r="F93">
-        <v>-0.00261389555671406</v>
+        <v>-0.01122161059336293</v>
       </c>
       <c r="G93">
-        <v>0.03681782975021491</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.03941884770397352</v>
+      </c>
+      <c r="H93">
+        <v>-0.05281883054525394</v>
+      </c>
+      <c r="I93">
+        <v>-0.16556444349309</v>
+      </c>
+      <c r="J93">
+        <v>0.1570549251188423</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>-0.3250958849014186</v>
+        <v>-0.3320284942267488</v>
       </c>
       <c r="C94">
-        <v>0.004712331921355995</v>
+        <v>-0.01643244374242888</v>
       </c>
       <c r="D94">
-        <v>-0.2597764670022294</v>
+        <v>0.1657485383192532</v>
       </c>
       <c r="E94">
-        <v>0.48443867340958</v>
+        <v>0.4203931881733576</v>
       </c>
       <c r="F94">
-        <v>0.350945201183966</v>
+        <v>-0.09917448332722392</v>
       </c>
       <c r="G94">
-        <v>-0.3505118785170612</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.1953250449825181</v>
+      </c>
+      <c r="H94">
+        <v>0.03010146509943497</v>
+      </c>
+      <c r="I94">
+        <v>-0.5013393052842477</v>
+      </c>
+      <c r="J94">
+        <v>-0.5371861911291621</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>-0.1881577363186269</v>
+        <v>-0.1432140321882533</v>
       </c>
       <c r="C95">
-        <v>0.05044701660156074</v>
+        <v>-0.04994849667874597</v>
       </c>
       <c r="D95">
-        <v>-0.02023663497868407</v>
+        <v>0.03388648070461703</v>
       </c>
       <c r="E95">
-        <v>0.2593078231319073</v>
+        <v>0.009988497005490956</v>
       </c>
       <c r="F95">
-        <v>-0.8997478167803523</v>
+        <v>-0.06501572833460303</v>
       </c>
       <c r="G95">
-        <v>-0.08210014923912164</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.9322943067587995</v>
+      </c>
+      <c r="H95">
+        <v>-0.07773418392405819</v>
+      </c>
+      <c r="I95">
+        <v>-0.05241938560442856</v>
+      </c>
+      <c r="J95">
+        <v>-0.2130206292590596</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>-0.202872788237317</v>
+        <v>-0.2045093517849838</v>
       </c>
       <c r="C98">
-        <v>0.1414228373164186</v>
+        <v>0.09355261823094616</v>
       </c>
       <c r="D98">
-        <v>0.0461132342229425</v>
+        <v>-0.01370529052511131</v>
       </c>
       <c r="E98">
-        <v>-0.1002076423528101</v>
+        <v>-0.1637038994021718</v>
       </c>
       <c r="F98">
-        <v>0.0009897696921042558</v>
+        <v>-0.07802810326274849</v>
       </c>
       <c r="G98">
-        <v>-0.2107898024297893</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.06099374894647865</v>
+      </c>
+      <c r="H98">
+        <v>-0.3001161771663166</v>
+      </c>
+      <c r="I98">
+        <v>0.1992088281849569</v>
+      </c>
+      <c r="J98">
+        <v>-0.1083153584497817</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>-0.01786714343218142</v>
+        <v>-0.0125141696714019</v>
       </c>
       <c r="C101">
-        <v>-0.01996233671642028</v>
+        <v>-0.03336749245134719</v>
       </c>
       <c r="D101">
-        <v>0.03257560039261902</v>
+        <v>0.02145234943502525</v>
       </c>
       <c r="E101">
-        <v>-0.03029308213350774</v>
+        <v>-0.06345880148614781</v>
       </c>
       <c r="F101">
-        <v>-0.002499678816294229</v>
+        <v>0.02989180453085015</v>
       </c>
       <c r="G101">
-        <v>0.0309951734480771</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.001546857903416191</v>
+      </c>
+      <c r="H101">
+        <v>0.118196861598739</v>
+      </c>
+      <c r="I101">
+        <v>-0.005468734496716291</v>
+      </c>
+      <c r="J101">
+        <v>-0.01254799790860336</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>-0.1248934534562031</v>
+        <v>-0.1219509854578842</v>
       </c>
       <c r="C102">
-        <v>0.0099387214164143</v>
+        <v>-0.0204981660692402</v>
       </c>
       <c r="D102">
-        <v>0.008473016217020129</v>
+        <v>0.05502690797442621</v>
       </c>
       <c r="E102">
-        <v>0.08216068462591176</v>
+        <v>0.08038092421742241</v>
       </c>
       <c r="F102">
-        <v>-0.02399563486136153</v>
+        <v>0.00491787130895495</v>
       </c>
       <c r="G102">
-        <v>0.01907367307836444</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.04133365565654697</v>
+      </c>
+      <c r="H102">
+        <v>-0.004526735100688898</v>
+      </c>
+      <c r="I102">
+        <v>-0.005251800536007675</v>
+      </c>
+      <c r="J102">
+        <v>0.06485193351767199</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>-0.01512537616237967</v>
+        <v>-0.02093104641219415</v>
       </c>
       <c r="C103">
-        <v>-0.004452452017460938</v>
+        <v>-0.004785188365999266</v>
       </c>
       <c r="D103">
-        <v>-0.001624264092877952</v>
+        <v>0.0132155827320949</v>
       </c>
       <c r="E103">
-        <v>0.02591477201643407</v>
+        <v>0.01566678039472262</v>
       </c>
       <c r="F103">
-        <v>0.008676717295561959</v>
+        <v>0.002362918241143526</v>
       </c>
       <c r="G103">
-        <v>-0.02321574001533533</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.01480105313579114</v>
+      </c>
+      <c r="H103">
+        <v>0.01066317474389734</v>
+      </c>
+      <c r="I103">
+        <v>-0.02666724916442922</v>
+      </c>
+      <c r="J103">
+        <v>0.008165115106032092</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
